--- a/outputs-GTDB-r202/f__Anaerovoracaceae.xlsx
+++ b/outputs-GTDB-r202/f__Anaerovoracaceae.xlsx
@@ -4584,7 +4584,7 @@
       </c>
       <c r="BD23" t="inlineStr">
         <is>
-          <t>g__VUNA01</t>
+          <t>g__VUNA01(reject)</t>
         </is>
       </c>
     </row>
